--- a/computer_arch/first_assignment/3.xlsx
+++ b/computer_arch/first_assignment/3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Cycle</t>
   </si>
@@ -442,7 +442,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -535,13 +535,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
@@ -552,9 +552,7 @@
       <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
